--- a/Documents/HowToExecute, Approach, Defects - BuggyCarsRating.xlsx
+++ b/Documents/HowToExecute, Approach, Defects - BuggyCarsRating.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karyll Urma\OneDrive\Documents\GOALS\Westpac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karyll Urma\OneDrive\Documents\GitHub\Test.BuggyCarsRating\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1378A7-14B0-4766-801B-2E662ED662F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141AFA09-DE14-4CEC-80E4-C712E655A06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-10470" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A5DF0929-27CD-4336-A6FB-AD82504CCBFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A5DF0929-27CD-4336-A6FB-AD82504CCBFA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Automation Approach" sheetId="3" r:id="rId1"/>
-    <sheet name="How To " sheetId="2" r:id="rId2"/>
+    <sheet name="Approach" sheetId="3" r:id="rId1"/>
+    <sheet name="How To" sheetId="2" r:id="rId2"/>
     <sheet name="Defects" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Defect Id</t>
   </si>
@@ -248,24 +248,6 @@
     <t>Step 5: All set to run scripts.</t>
   </si>
   <si>
-    <t xml:space="preserve">Framework: </t>
-  </si>
-  <si>
-    <t>.Net 5.0</t>
-  </si>
-  <si>
-    <t>Test Framework:</t>
-  </si>
-  <si>
-    <t>Nunit</t>
-  </si>
-  <si>
-    <t>Model:</t>
-  </si>
-  <si>
-    <t>BDD using Specflow</t>
-  </si>
-  <si>
     <t>The automation framework is designed using the following specifications below:</t>
   </si>
   <si>
@@ -277,6 +259,18 @@
   </si>
   <si>
     <t>A set of libraries such as Helpers, Base, Contexts, Runsettings/Config  are created to develop the framework on top of the basics: Features, Pages, Hooks and Steps.</t>
+  </si>
+  <si>
+    <t>Framework design Model:</t>
+  </si>
+  <si>
+    <t>Behavioral Driven Development - Specflow</t>
+  </si>
+  <si>
+    <t>.Net 5.0, C#, Nunit, Gherkin</t>
+  </si>
+  <si>
+    <t>Technology/Framework:</t>
   </si>
 </sst>
 </file>
@@ -474,55 +468,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>97449</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C94602A-87B8-40A6-8DEA-122345611B4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2857500"/>
-          <a:ext cx="5448300" cy="1811949"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1044,76 +989,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8791A2AE-35E2-45EA-819A-590332B5EC91}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>58</v>
+      <c r="A7" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1122,7 +1055,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1132,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/HowToExecute, Approach, Defects - BuggyCarsRating.xlsx
+++ b/Documents/HowToExecute, Approach, Defects - BuggyCarsRating.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karyll Urma\OneDrive\Documents\GitHub\Test.BuggyCarsRating\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karyll Urma\OneDrive\Documents\GOALS\Westpac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141AFA09-DE14-4CEC-80E4-C712E655A06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F319E165-A3F1-400D-B89A-84F4491E5E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A5DF0929-27CD-4336-A6FB-AD82504CCBFA}"/>
+    <workbookView xWindow="20370" yWindow="-10470" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A5DF0929-27CD-4336-A6FB-AD82504CCBFA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Approach" sheetId="3" r:id="rId1"/>
-    <sheet name="How To" sheetId="2" r:id="rId2"/>
+    <sheet name="Automation Approach" sheetId="3" r:id="rId1"/>
+    <sheet name="How To " sheetId="2" r:id="rId2"/>
     <sheet name="Defects" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Defect Id</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Defect - 08</t>
-  </si>
-  <si>
-    <t>Sort Make (Alphabetical), Model (Alphabetical), Rank (not sorted correctly), (highest to lowest), Engine (lowest to highest) --&gt; Not reversible(manual/exploratory)</t>
   </si>
   <si>
     <t>Defect - 09</t>
@@ -248,6 +245,18 @@
     <t>Step 5: All set to run scripts.</t>
   </si>
   <si>
+    <t xml:space="preserve">Framework: </t>
+  </si>
+  <si>
+    <t>.Net 5.0</t>
+  </si>
+  <si>
+    <t>Test Framework:</t>
+  </si>
+  <si>
+    <t>Model:</t>
+  </si>
+  <si>
     <t>The automation framework is designed using the following specifications below:</t>
   </si>
   <si>
@@ -261,16 +270,56 @@
     <t>A set of libraries such as Helpers, Base, Contexts, Runsettings/Config  are created to develop the framework on top of the basics: Features, Pages, Hooks and Steps.</t>
   </si>
   <si>
-    <t>Framework design Model:</t>
-  </si>
-  <si>
-    <t>Behavioral Driven Development - Specflow</t>
-  </si>
-  <si>
-    <t>.Net 5.0, C#, Nunit, Gherkin</t>
-  </si>
-  <si>
-    <t>Technology/Framework:</t>
+    <t>## Project Description</t>
+  </si>
+  <si>
+    <t>This project will test the existing functionality of Buggy Cars Rating. This includes system and regression test of the features such as Registration, Login, Logout and Voting. The project aims to benefit the testers/team in terms of execution time, accuracy and reducing manual effort.</t>
+  </si>
+  <si>
+    <t>## Build Status</t>
+  </si>
+  <si>
+    <t>Repository is currently at GitHub https://github.com/karyll-urma/Test.BCRating</t>
+  </si>
+  <si>
+    <t>Build status is currently passing. Scripts running on the workflow are scripts without defect. This can be changed based on project/teams requirements</t>
+  </si>
+  <si>
+    <t>## Application under test</t>
+  </si>
+  <si>
+    <t>https://buggy.justtestit.org/</t>
+  </si>
+  <si>
+    <t>## Tests</t>
+  </si>
+  <si>
+    <t>Current Test status:</t>
+  </si>
+  <si>
+    <t>Feature files: 3</t>
+  </si>
+  <si>
+    <t>Number of test cases: 34</t>
+  </si>
+  <si>
+    <t>Passed: 24</t>
+  </si>
+  <si>
+    <t>Failed: 10 (with defects)</t>
+  </si>
+  <si>
+    <t>NUnit</t>
+  </si>
+  <si>
+    <t>Behavioral Driven Development(BDD) – Specflow</t>
+  </si>
+  <si>
+    <t>Sort Make (Alphabetical), Model (Alphabetical), Rank (not sorted correctly), (highest to lowest), Engine (lowest to highest) --&gt; Not reversible</t>
+  </si>
+  <si>
+    <t>Step 6: After executing,extent report will be created on your local temp folder
+C:\Temp\Test Reports</t>
   </si>
 </sst>
 </file>
@@ -445,9 +494,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -989,73 +1040,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8791A2AE-35E2-45EA-819A-590332B5EC91}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="95" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+    </row>
+    <row r="14" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59F0C13-56DB-484B-B18B-DC6E9A60CC9A}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,55 +1193,60 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1131,9 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724EE872-6E94-4400-9BF3-D6C74F30771F}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1153,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1167,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1181,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.3">
@@ -1195,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1209,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1223,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1250,12 +1380,12 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -1264,10 +1394,10 @@
     </row>
     <row r="10" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1276,10 +1406,10 @@
     </row>
     <row r="11" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -1288,10 +1418,10 @@
     </row>
     <row r="12" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -1300,10 +1430,10 @@
     </row>
     <row r="13" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -1312,10 +1442,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
